--- a/result/problem_1/results-overtime.xlsx
+++ b/result/problem_1/results-overtime.xlsx
@@ -518,13 +518,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>289907</v>
+        <v>289382</v>
       </c>
       <c r="E2" t="n">
-        <v>151246</v>
+        <v>151134</v>
       </c>
       <c r="F2" t="n">
-        <v>518501</v>
+        <v>518206</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>538902</v>
+        <v>538301</v>
       </c>
       <c r="J2" t="n">
         <v>73629</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>547875</v>
+        <v>545463</v>
       </c>
       <c r="M2" t="n">
         <v>9340</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2129400</v>
+        <v>2125455</v>
       </c>
     </row>
     <row r="3">
@@ -560,7 +560,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dmlf</t>
+          <t>dmsf</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -658,7 +658,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>mlf</t>
+          <t>msf</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -714,13 +714,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>490091</v>
+        <v>387466</v>
       </c>
       <c r="E6" t="n">
-        <v>239647</v>
+        <v>186312</v>
       </c>
       <c r="F6" t="n">
-        <v>740194</v>
+        <v>618878</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -729,25 +729,25 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>771824</v>
+        <v>668024</v>
       </c>
       <c r="J6" t="n">
-        <v>92936</v>
+        <v>91316</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>783631</v>
+        <v>714761</v>
       </c>
       <c r="M6" t="n">
-        <v>17615</v>
+        <v>11530</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>3135938</v>
+        <v>2678287</v>
       </c>
     </row>
   </sheetData>
